--- a/Assets/06.Table/PassiveSkill3.xlsx
+++ b/Assets/06.Table/PassiveSkill3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50AD2C4-9DA3-4B00-A0CA-806833550A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F30970-F9C2-4FAB-848F-9F2485ADB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>수미산 특별 훈련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도 특별 훈련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,6 +891,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>127</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14" si="3">E13</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
